--- a/biology/Botanique/Anthémis_maritime/Anthémis_maritime.xlsx
+++ b/biology/Botanique/Anthémis_maritime/Anthémis_maritime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anth%C3%A9mis_maritime</t>
+          <t>Anthémis_maritime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthemis maritima
 L'Anthémis maritime (Anthemis maritima) est une espèce de plante herbacée à souche ligneuse de la famille des Astéracées.
-On la rencontre en France de manière commune sur le littoral méditerranéen depuis la Camargue jusqu'au Roussillon[1].
-Elle fleurit principalement de mai à juillet mais peut aussi être vue en fleur sur une grande partie de l'année[1].
-Anthemis maritima forme des touffes de 5 à 20 cm de hauteur et jusqu'à un mètre de diamètre[1].
+On la rencontre en France de manière commune sur le littoral méditerranéen depuis la Camargue jusqu'au Roussillon.
+Elle fleurit principalement de mai à juillet mais peut aussi être vue en fleur sur une grande partie de l'année.
+Anthemis maritima forme des touffes de 5 à 20 cm de hauteur et jusqu'à un mètre de diamètre.
 </t>
         </is>
       </c>
